--- a/info/Min-max/Alpha Analysis.xlsx
+++ b/info/Min-max/Alpha Analysis.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Alpha Analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="Error" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId2"/>
+    <sheet name="Error" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>ALPHA</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,6 +69,10 @@
   </si>
   <si>
     <t>Overall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +170,9 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -181,6 +189,1004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Alpha / NP2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alpha Analysis'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Alpha Analysis'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Alpha Analysis'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.8522222222222221E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79628888888888882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96296666666666653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93518888888888896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96296666666666653</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96759259259259245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97333333333333327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97333333333333327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93981481481481488</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87963333333333327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="278312304"/>
+        <c:axId val="278316224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="278312304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278316224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="278316224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278312304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>195120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,9 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -462,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -900,10 +1904,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1055,34 +2073,66 @@
       <c r="A9" s="2">
         <v>0.7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
       <c r="F9" s="7">
         <v>5.5726083597058802E-7</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
       <c r="F10" s="7">
         <v>7.64060929727593E-7</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">

--- a/info/Min-max/Alpha Analysis.xlsx
+++ b/info/Min-max/Alpha Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5604" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5604" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Alpha Analysis" sheetId="2" r:id="rId1"/>
@@ -225,8 +225,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" i="1"/>
+              <a:t>α </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Alpha / NP2</a:t>
+              <a:t>/ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1"/>
+              <a:t>NP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="800"/>
+              <a:t>2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -450,11 +462,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="278312304"/>
-        <c:axId val="278316224"/>
+        <c:axId val="204821376"/>
+        <c:axId val="204999312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="278312304"/>
+        <c:axId val="204821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +509,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278316224"/>
+        <c:crossAx val="204999312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -505,7 +517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278316224"/>
+        <c:axId val="204999312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -557,7 +569,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278312304"/>
+        <c:crossAx val="204821376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -578,12 +590,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1906,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1920,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2086,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>5.5726083597058802E-7</v>
+        <v>1.3172608359705901E-6</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2119,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>7.64060929727593E-7</v>
+        <v>1.5240609297275901E-6</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>

--- a/info/Min-max/Alpha Analysis.xlsx
+++ b/info/Min-max/Alpha Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5604" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5604" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alpha Analysis" sheetId="2" r:id="rId1"/>
@@ -225,21 +225,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" i="1"/>
-              <a:t>α </a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" b="1" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Overall</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>/ </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" i="1"/>
-              <a:t>NP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="800"/>
-              <a:t>2</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="800" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -303,7 +300,7 @@
                 <a:schemeClr val="bg1"/>
               </a:bgClr>
             </a:pattFill>
-            <a:ln w="9525">
+            <a:ln w="12700" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -326,10 +323,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -416,25 +410,25 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.8522222222222221E-2</c:v>
+                  <c:v>1.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63888888888888884</c:v>
+                  <c:v>0.63777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79628888888888882</c:v>
+                  <c:v>0.79555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96296666666666653</c:v>
+                  <c:v>0.9622222222222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93518888888888896</c:v>
+                  <c:v>0.93555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96296666666666653</c:v>
+                  <c:v>0.9622222222222222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96759259259259245</c:v>
+                  <c:v>0.96666666666666656</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.97333333333333327</c:v>
@@ -443,10 +437,10 @@
                   <c:v>0.97333333333333327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93981481481481488</c:v>
+                  <c:v>0.94000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87963333333333327</c:v>
+                  <c:v>0.87777777777777777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,19 +454,100 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
-        <c:axId val="204821376"/>
-        <c:axId val="204999312"/>
+        <c:axId val="205251344"/>
+        <c:axId val="205251904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204821376"/>
+        <c:axId val="205251344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Propagation Ratio (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" b="1" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>α%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -480,9 +555,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -496,10 +570,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -509,7 +580,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204999312"/>
+        <c:crossAx val="205251904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -517,7 +588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204999312"/>
+        <c:axId val="205251904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -528,9 +599,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -538,6 +608,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Success Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -556,10 +691,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -569,14 +701,18 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204821376"/>
+        <c:crossAx val="205251344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1461,7 +1597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1535,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="K2" s="5">
         <f>AVERAGE(B2:J2)</f>
-        <v>1.8522222222222221E-2</v>
+        <v>1.7777777777777778E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1571,11 +1709,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K12" si="0">AVERAGE(B3:J3)</f>
-        <v>0.63888888888888884</v>
+        <v>0.63777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1595,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1604,14 +1742,14 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>0.58330000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>0.79628888888888882</v>
+        <v>0.79555555555555557</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1631,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.66</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1647,7 +1785,7 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>0.96296666666666653</v>
+        <v>0.9622222222222222</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1658,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.92</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1683,7 +1821,7 @@
       </c>
       <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>0.93518888888888896</v>
+        <v>0.93555555555555558</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1703,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1712,14 +1850,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0.91669999999999996</v>
+        <v>0.92</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="0"/>
-        <v>0.96296666666666653</v>
+        <v>0.9622222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1739,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1748,14 +1886,14 @@
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>0.95833333333333304</v>
+        <v>0.96</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
-        <v>0.96759259259259245</v>
+        <v>0.96666666666666656</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1838,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>0.91666666666666696</v>
+        <v>0.92</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1847,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>0.54166666666666696</v>
+        <v>0.54</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1863,7 +2001,7 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="0"/>
-        <v>0.93981481481481488</v>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1883,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1892,14 +2030,14 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="0"/>
-        <v>0.87963333333333327</v>
+        <v>0.87777777777777777</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1927,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
